--- a/config/payee_rules.xlsx
+++ b/config/payee_rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithan/opt/dev/2026-Budget/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithan/opt/dev/_2026_budget/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959639FD-F3A5-1146-B892-F6B39C1189F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5348752-502A-0040-ABC0-7E98FA825D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="600" windowWidth="20280" windowHeight="21500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>match_string</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>מתנה לליזי</t>
+  </si>
+  <si>
+    <t>08.01.26</t>
+  </si>
+  <si>
+    <t>תיאטרון גשר - מנוי</t>
   </si>
 </sst>
 </file>
@@ -220,12 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
@@ -717,7 +726,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
@@ -734,7 +743,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
@@ -751,7 +760,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
@@ -768,7 +777,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B24" t="s">
@@ -782,6 +791,23 @@
       </c>
       <c r="F24" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>9846</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
